--- a/Learning/Docker/Docker_notes.xlsx
+++ b/Learning/Docker/Docker_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\202108_Docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758E9387-42E6-430F-9DFE-F183EDC30629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD88F80-C9AA-4435-861A-223E6221BA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="440">
   <si>
     <t>UDEMY</t>
   </si>
@@ -315,9 +315,6 @@
     </r>
   </si>
   <si>
-    <t>docker attach docker_ID/name</t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
@@ -333,9 +330,6 @@
     <t>Run centOS images</t>
   </si>
   <si>
-    <t>docker exec container_ID/name cmd</t>
-  </si>
-  <si>
     <t>https://udlabs.kodekloud.com/courses/labs-docker-for-the-absolute-beginner-hands-on/</t>
   </si>
   <si>
@@ -589,7 +583,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>–v</t>
+      <t>-p 8080:8080 -v /root/my-jenkins-data:/var/jenkins_home -u root</t>
     </r>
     <r>
       <rPr>
@@ -599,6 +593,1105 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> jenkins</t>
+    </r>
+  </si>
+  <si>
+    <t>https://udlabs.kodekloud.com/topic/labs-docker-run-commands/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mumshad-mannambeth-29987029/</t>
+  </si>
+  <si>
+    <t>Section 4: Docker Images</t>
+  </si>
+  <si>
+    <t>Section 5: Docker Compose</t>
+  </si>
+  <si>
+    <t>Section 6: Docker Registry</t>
+  </si>
+  <si>
+    <t>Section 7: Docker Engine, Storage and Networking</t>
+  </si>
+  <si>
+    <t>Section 8: Docker on Mac &amp; Windows</t>
+  </si>
+  <si>
+    <t>Section 9: Container Orchestration - Docker Swarm &amp; Kubernetes</t>
+  </si>
+  <si>
+    <t>Section 10: Conclusion</t>
+  </si>
+  <si>
+    <t>Section 1: Introduction</t>
+  </si>
+  <si>
+    <t>ENV Variables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-e APP_COLOR=red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> simple-webapp-color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-e APP_COLOR=blue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> simple-webapp-color</t>
+    </r>
+  </si>
+  <si>
+    <t>color = os.environ.get('APP_COLOR')</t>
+  </si>
+  <si>
+    <t>Dockerfile</t>
+  </si>
+  <si>
+    <t>a text document</t>
+  </si>
+  <si>
+    <t>using docker build</t>
+  </si>
+  <si>
+    <t>build instructions to build the image</t>
+  </si>
+  <si>
+    <t>=&gt; ensure the latest version available</t>
+  </si>
+  <si>
+    <t>[INSTRUCTION] [ARGUMENT]</t>
+  </si>
+  <si>
+    <t>docker run -it ubuntu bash</t>
+  </si>
+  <si>
+    <t>pip install flask</t>
+  </si>
+  <si>
+    <t>https://github.com/mmumshad/simple-webapp-flask</t>
+  </si>
+  <si>
+    <t>cat &gt; /opt/app.py</t>
+  </si>
+  <si>
+    <t>apt-get update</t>
+  </si>
+  <si>
+    <t>apt-get install -y python</t>
+  </si>
+  <si>
+    <t>apt-get install -y python-pip</t>
+  </si>
+  <si>
+    <t>FLASK_APP=/opt/app.py flask run --host=0.0.0.0</t>
+  </si>
+  <si>
+    <t>docker build .</t>
+  </si>
+  <si>
+    <t>docker build . -t my-simple-webapp</t>
+  </si>
+  <si>
+    <t>docker build . -t tungbui/my-simple-webapp</t>
+  </si>
+  <si>
+    <t>docker login</t>
+  </si>
+  <si>
+    <t>docker push tungbui/my-simple-webapp</t>
+  </si>
+  <si>
+    <t>Copy source code from local app.py</t>
+  </si>
+  <si>
+    <t>FROM ubuntu</t>
+  </si>
+  <si>
+    <t>RUN apt-get update</t>
+  </si>
+  <si>
+    <t>RUN apt-get install -y python python3-pip</t>
+  </si>
+  <si>
+    <t>RUN pip3 install flask</t>
+  </si>
+  <si>
+    <t>COPY . /opt/app.py</t>
+  </si>
+  <si>
+    <t>ENTRYPOINT FLASK_APP=/opt/app.py flask run --host=0.0.0.0</t>
+  </si>
+  <si>
+    <t>https://udlabs.kodekloud.com/topic/labs-docker-images/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> container_ID/name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> container_ID/name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> container_ID/name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> timer</t>
+    </r>
+  </si>
+  <si>
+    <t>https://udlabs.kodekloud.com/topic/labs-envirnoment-variables/</t>
+  </si>
+  <si>
+    <t>CMD vs ENTRYPOINT</t>
+  </si>
+  <si>
+    <t>CMD sleep 5</t>
+  </si>
+  <si>
+    <t>CMD ["sleep", "5"]</t>
+  </si>
+  <si>
+    <t>docker run ubuntu-sleeper sleep 10</t>
+  </si>
+  <si>
+    <t>docker run ubuntu-sleeper 10</t>
+  </si>
+  <si>
+    <t>ENTRYPOINT ["sleep"]</t>
+  </si>
+  <si>
+    <t>Entrypoint instruction specifies the program that will be run when the container starts.</t>
+  </si>
+  <si>
+    <t>CMD ["5"]</t>
+  </si>
+  <si>
+    <t>For safety reason</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--entrypoint </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sleep2.0 ubuntu-sleeper 10</t>
+    </r>
+  </si>
+  <si>
+    <t>Over-write entrypoint</t>
+  </si>
+  <si>
+    <t>https://udlabs.kodekloud.com/topic/labs-command-entrypoint/</t>
+  </si>
+  <si>
+    <t>ENTRYPOINT ["python", "app.py"]</t>
+  </si>
+  <si>
+    <t>EXPOSE 8080</t>
+  </si>
+  <si>
+    <t>https://hub.docker.com/_/python?tab=tags&amp;page=1&amp;ordering=last_updated</t>
+  </si>
+  <si>
+    <t>docker pull python:3.6.14-alpine3.14</t>
+  </si>
+  <si>
+    <t>docker build . -t webapp-color:lite</t>
+  </si>
+  <si>
+    <t>FROM python:3.6 ---&gt; python:3.6.14-alpine3.14</t>
+  </si>
+  <si>
+    <t>Find a lite docker image (40MB)</t>
+  </si>
+  <si>
+    <t>docker run -p 8383:8080 webapp-color:lite</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run --name mysql-db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-e MYSQL_ROOT_PASSWORD=db_pass123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mysql</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.docker.com/engine/reference/builder/#:~:text=A%20Dockerfile%20is%20a%20text,can%20use%20in%20a%20Dockerfile%20.</t>
+  </si>
+  <si>
+    <t>FROM busybox</t>
+  </si>
+  <si>
+    <t>ENV FOO=/bar</t>
+  </si>
+  <si>
+    <t>WORKDIR ${FOO}   # WORKDIR /bar</t>
+  </si>
+  <si>
+    <t>Working with configuration in YAML file</t>
+  </si>
+  <si>
+    <t>Set up complex application running multiple services =&gt; BETTER to use docker compose</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a configuration file in YAML formal called</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> docker-compose.yaml</t>
+    </r>
+  </si>
+  <si>
+    <t>put together different services and specific options</t>
+  </si>
+  <si>
+    <t>docker-compose up</t>
+  </si>
+  <si>
+    <t>Only applicable to running containers on a single host</t>
+  </si>
+  <si>
+    <t>Sample voting application</t>
+  </si>
+  <si>
+    <t>an interface for a user to vote</t>
+  </si>
+  <si>
+    <t>another interface to show the results</t>
+  </si>
+  <si>
+    <t>voting-app</t>
+  </si>
+  <si>
+    <t>python webapp to provide an interface to vote</t>
+  </si>
+  <si>
+    <t>in-memory DB</t>
+  </si>
+  <si>
+    <t>redis to store the vote</t>
+  </si>
+  <si>
+    <t>.Net application to process the vote</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>persistent postgreSQL</t>
+  </si>
+  <si>
+    <t>result-app</t>
+  </si>
+  <si>
+    <t>nodejs webapp to display the results</t>
+  </si>
+  <si>
+    <t>docker run --links</t>
+  </si>
+  <si>
+    <t>docker run -d --name=redis redis</t>
+  </si>
+  <si>
+    <t>docker run -d --name=db postgres</t>
+  </si>
+  <si>
+    <r>
+      <t>docker run -d --name=vote -p 5000:80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --link redis:redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> voting-app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d --name=result -p 5001:80 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--link db:db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result-app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d --name=worker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--link redis:redis --link db:db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worker</t>
+    </r>
+  </si>
+  <si>
+    <t>Note: it may be depricated in the future since Docker SWARM appears</t>
+  </si>
+  <si>
+    <t>docker-compose.yaml</t>
+  </si>
+  <si>
+    <t>redis:</t>
+  </si>
+  <si>
+    <t>image: redis</t>
+  </si>
+  <si>
+    <t>db:</t>
+  </si>
+  <si>
+    <t>image: postgres:9.4</t>
+  </si>
+  <si>
+    <t>vote:</t>
+  </si>
+  <si>
+    <t>image: voting-app</t>
+  </si>
+  <si>
+    <t>ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 5000:80</t>
+  </si>
+  <si>
+    <t>links:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - redis</t>
+  </si>
+  <si>
+    <t>result:</t>
+  </si>
+  <si>
+    <t>image: result-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 5001:80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - db</t>
+  </si>
+  <si>
+    <t>worker:</t>
+  </si>
+  <si>
+    <t>image: worker</t>
+  </si>
+  <si>
+    <t>container name</t>
+  </si>
+  <si>
+    <t>docker compose - build</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>build: ./vote</t>
+  </si>
+  <si>
+    <t>Set up complex application running multiple services with configurations in YAML file</t>
+  </si>
+  <si>
+    <t>Create our own docker images with Dockerfile</t>
+  </si>
+  <si>
+    <t>Introduce Docker, Container, Image, Dockerhub.</t>
+  </si>
+  <si>
+    <t>Get farmiliar with Docker commands</t>
+  </si>
+  <si>
+    <t>Run Docker with options</t>
+  </si>
+  <si>
+    <t>docker compose - versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version 1: </t>
+  </si>
+  <si>
+    <t>only default bridge network;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version 2: </t>
+  </si>
+  <si>
+    <t>depends_on keywords</t>
+  </si>
+  <si>
+    <t>version 3:</t>
+  </si>
+  <si>
+    <t>support Docker SWARM</t>
+  </si>
+  <si>
+    <t>Docker compose - networks</t>
+  </si>
+  <si>
+    <t>networks:</t>
+  </si>
+  <si>
+    <t>front-end:</t>
+  </si>
+  <si>
+    <t>back-end:</t>
+  </si>
+  <si>
+    <t>create a dedicated network for application =&gt; 'links' no longer needed</t>
+  </si>
+  <si>
+    <t>https://kodekloud.com/p/json-path-quiz</t>
+  </si>
+  <si>
+    <t>https://github.com/dockersamples/example-voting-app</t>
+  </si>
+  <si>
+    <t>https://docs.docker.com/compose/install/</t>
+  </si>
+  <si>
+    <t>https://udlabs.kodekloud.com/topic/labs-docker-compose/</t>
+  </si>
+  <si>
+    <t>docker run -d --name=redis redis:alpine</t>
+  </si>
+  <si>
+    <t>docker run -d -p 8085:5000 --name clickcounter --link redis kodekloud/click-counter</t>
+  </si>
+  <si>
+    <t>under 'version: "2"' &amp; 'services'</t>
+  </si>
+  <si>
+    <t>version: "3"</t>
+  </si>
+  <si>
+    <t>services:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  redis:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: redis:alpine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  clickcounter:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: kodekloud/click-counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 8085:5000</t>
+  </si>
+  <si>
+    <t>docker run nginx</t>
+  </si>
+  <si>
+    <t>docker.io/nginx/nginx</t>
+  </si>
+  <si>
+    <t>registry</t>
+  </si>
+  <si>
+    <t>user/account</t>
+  </si>
+  <si>
+    <t>image/repository</t>
+  </si>
+  <si>
+    <t>Docker Hub: docker.io</t>
+  </si>
+  <si>
+    <t>Google's Registry: GCR.io</t>
+  </si>
+  <si>
+    <t>gcr.io/kubernetes-e2e-test-images/dnsutils</t>
+  </si>
+  <si>
+    <t>Private Registry</t>
+  </si>
+  <si>
+    <t>docker run private-registry.io/apps/internal-app</t>
+  </si>
+  <si>
+    <t>Deploy private registry</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> private-registry.io</t>
+    </r>
+  </si>
+  <si>
+    <t>docker push localhost:5000/my-image</t>
+  </si>
+  <si>
+    <t>docker pull localhost:5000/my-image</t>
+  </si>
+  <si>
+    <t>docker pull 192.168.56.100:5000/my-image</t>
+  </si>
+  <si>
+    <t>Create custom registry running at port 5000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d -p 5000:5000 --name=registry </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>registry:2</t>
+    </r>
+  </si>
+  <si>
+    <t>Tag image with the private url</t>
+  </si>
+  <si>
+    <t>Push image to my local private registry</t>
+  </si>
+  <si>
+    <t>Pull image from anywhere within networks</t>
+  </si>
+  <si>
+    <t>Take a deeper look at Docker's architecture</t>
+  </si>
+  <si>
+    <t>Docker Engine = a host with Docker installed on it</t>
+  </si>
+  <si>
+    <t>Docker Deamon: manages Docker objects such as images, containers, volumes, networks</t>
+  </si>
+  <si>
+    <t>Docker REST API: API interface that programs use to talk to the deamon and provide instructions</t>
+  </si>
+  <si>
+    <t>Docker CLI: Command line interface</t>
+  </si>
+  <si>
+    <t>Docker CLI can be at a remote Laptop</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--cpus=.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ubuntu</t>
+    </r>
+  </si>
+  <si>
+    <t>container does not take up more than 50% of the host CPU</t>
+  </si>
+  <si>
+    <t>limit the amount of memory container can use to 100MB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--memory=100m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ubuntu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From laptop, we can run cmd to remote docker engine by option </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-H</t>
+    </r>
+  </si>
+  <si>
+    <t>Containers share the same system resources such as CPU and memory.</t>
+  </si>
+  <si>
+    <t>cgroups</t>
+  </si>
+  <si>
+    <t>By default, there is no restriction how much resource a container can use.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> container_ID/name cmd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> docker_ID/name</t>
+    </r>
+  </si>
+  <si>
+    <t>docker exec 5a5f912e0f0e ps -eaf</t>
+  </si>
+  <si>
+    <t>Docker Storage</t>
+  </si>
+  <si>
+    <t>/var/lib/docker</t>
+  </si>
+  <si>
+    <t>aufs</t>
+  </si>
+  <si>
+    <t>containers</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>volumes</t>
+  </si>
+  <si>
+    <t>File System</t>
+  </si>
+  <si>
+    <t>Layered architecture</t>
+  </si>
+  <si>
+    <t>Layer 1. Base ubuntu layer</t>
+  </si>
+  <si>
+    <t>Layer 3. Changes in pip packages</t>
+  </si>
+  <si>
+    <t>Layer 4. Source code</t>
+  </si>
+  <si>
+    <t>Layer 5. Update entrypoint</t>
+  </si>
+  <si>
+    <t>Layer 2. Changes in apt packages</t>
+  </si>
+  <si>
+    <t>120MB</t>
+  </si>
+  <si>
+    <t>306MB</t>
+  </si>
+  <si>
+    <t>6.3MB</t>
+  </si>
+  <si>
+    <t>229B</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>RUN pip install flask flask-mysql</t>
+  </si>
+  <si>
+    <t>COPY app.py /opt/app.py</t>
+  </si>
+  <si>
+    <t>ENTRYPOINT …</t>
+  </si>
+  <si>
+    <t>docker run tungbui/my-simple-webapp</t>
+  </si>
+  <si>
+    <t>Create a data_volume folder under /var/lib/docker/volume directory</t>
+  </si>
+  <si>
+    <r>
+      <t>docker run</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -v data_volume:/var/lib/mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mysql</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> create data_volume</t>
+    </r>
+  </si>
+  <si>
+    <t>Mount data to host directory</t>
+  </si>
+  <si>
+    <t>-v: map the data from container to host so the data does not get lost when stop container</t>
+  </si>
+  <si>
+    <r>
+      <t>docker run -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -634,7 +1727,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-p 8080:8080 -v /root/my-jenkins-data:/var/jenkins_home -u root</t>
+      <t>--mount type=bind,source=/data/mysql,target=/var/lib/mysql</t>
     </r>
     <r>
       <rPr>
@@ -644,45 +1737,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> jenkins</t>
-    </r>
-  </si>
-  <si>
-    <t>https://udlabs.kodekloud.com/topic/labs-docker-run-commands/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mumshad-mannambeth-29987029/</t>
-  </si>
-  <si>
-    <t>Section 4: Docker Images</t>
-  </si>
-  <si>
-    <t>Section 5: Docker Compose</t>
-  </si>
-  <si>
-    <t>Section 6: Docker Registry</t>
-  </si>
-  <si>
-    <t>Section 7: Docker Engine, Storage and Networking</t>
-  </si>
-  <si>
-    <t>Section 8: Docker on Mac &amp; Windows</t>
-  </si>
-  <si>
-    <t>Section 9: Container Orchestration - Docker Swarm &amp; Kubernetes</t>
-  </si>
-  <si>
-    <t>Section 10: Conclusion</t>
-  </si>
-  <si>
-    <t>Section 1: Introduction</t>
-  </si>
-  <si>
-    <t>ENV Variables</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">docker run </t>
+      <t xml:space="preserve"> mysql</t>
+    </r>
+  </si>
+  <si>
+    <t>READ-WRITE Layer</t>
+  </si>
+  <si>
+    <t>Layer 6. Container Layer</t>
+  </si>
+  <si>
+    <t>READ-ONLY Layers</t>
+  </si>
+  <si>
+    <t>docker info</t>
+  </si>
+  <si>
+    <t>Storage drivers</t>
+  </si>
+  <si>
+    <t>/var/lib/docker/aufs</t>
+  </si>
+  <si>
+    <t>/diff</t>
+  </si>
+  <si>
+    <t>/layers</t>
+  </si>
+  <si>
+    <t>/mnt</t>
+  </si>
+  <si>
+    <t>AUFS storage driver</t>
+  </si>
+  <si>
+    <t>RUN apt-get update &amp; apt-get -y install python python3-pip</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker build . </t>
     </r>
     <r>
       <rPr>
@@ -692,7 +1785,115 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-e APP_COLOR=red</t>
+      <t>-f Dockerfile2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -t tungbui/my-webapp</t>
+    </r>
+  </si>
+  <si>
+    <t>Understand where docker images are stored</t>
+  </si>
+  <si>
+    <t>docker history a1b2c3d4</t>
+  </si>
+  <si>
+    <t>docker system df</t>
+  </si>
+  <si>
+    <t>docker system df -v</t>
+  </si>
+  <si>
+    <t>https://udlabs.kodekloud.com/topic/labs-docker-storage-2/</t>
+  </si>
+  <si>
+    <t>Docker Networking</t>
+  </si>
+  <si>
+    <t>When we install Docker, it creates 3 networks automatically</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Defaut networks containers get attached to</t>
+  </si>
+  <si>
+    <t>Private internal docker networks =&gt; each container get a private IP address (172.17.x.x)</t>
+  </si>
+  <si>
+    <t>May need to map to host port (-p)</t>
+  </si>
+  <si>
+    <t>Containers use the same networks as Host</t>
+  </si>
+  <si>
+    <t>Containers are not attached to any networks</t>
+  </si>
+  <si>
+    <t>User-defined networks</t>
+  </si>
+  <si>
+    <t>docker network create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --driver bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --subnet 182.18.0.0/16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    custom-isolated-network</t>
+  </si>
+  <si>
+    <t>docker network ls</t>
+  </si>
+  <si>
+    <t>Inspect network</t>
+  </si>
+  <si>
+    <t>Embeded DNS</t>
+  </si>
+  <si>
+    <t>mysql.connect (172.7.0.3)</t>
+  </si>
+  <si>
+    <t>mysql.connect (container_name)</t>
+  </si>
+  <si>
+    <t>Should use container name</t>
+  </si>
+  <si>
+    <t>Should NOT use this constant IP address</t>
+  </si>
+  <si>
+    <t>https://udlabs.kodekloud.com/topic/labs-docker-networking-2/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker image </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag</t>
     </r>
     <r>
       <rPr>
@@ -702,12 +1903,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> simple-webapp-color</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">docker run </t>
+      <t xml:space="preserve"> my-image localhost:5000/my-image</t>
+    </r>
+  </si>
+  <si>
+    <t>docker exec mysql-db mysql -pdb_pass123 -e 'use foo; select * from myTable'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d --name=mysql-db -e MYSQL_ROOT_PASSWORD=db_pass123 </t>
     </r>
     <r>
       <rPr>
@@ -717,7 +1921,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-e APP_COLOR=blue</t>
+      <t>-v /opt/data:/var/lib/mysql</t>
     </r>
     <r>
       <rPr>
@@ -727,92 +1931,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> simple-webapp-color</t>
-    </r>
-  </si>
-  <si>
-    <t>color = os.environ.get('APP_COLOR')</t>
-  </si>
-  <si>
-    <t>Dockerfile</t>
-  </si>
-  <si>
-    <t>a text document</t>
-  </si>
-  <si>
-    <t>using docker build</t>
-  </si>
-  <si>
-    <t>build instructions to build the image</t>
-  </si>
-  <si>
-    <t>=&gt; ensure the latest version available</t>
-  </si>
-  <si>
-    <t>[INSTRUCTION] [ARGUMENT]</t>
-  </si>
-  <si>
-    <t>docker run -it ubuntu bash</t>
-  </si>
-  <si>
-    <t>pip install flask</t>
-  </si>
-  <si>
-    <t>https://github.com/mmumshad/simple-webapp-flask</t>
-  </si>
-  <si>
-    <t>cat &gt; /opt/app.py</t>
-  </si>
-  <si>
-    <t>apt-get update</t>
-  </si>
-  <si>
-    <t>apt-get install -y python</t>
-  </si>
-  <si>
-    <t>apt-get install -y python-pip</t>
-  </si>
-  <si>
-    <t>FLASK_APP=/opt/app.py flask run --host=0.0.0.0</t>
-  </si>
-  <si>
-    <t>docker build .</t>
-  </si>
-  <si>
-    <t>docker build . -t my-simple-webapp</t>
-  </si>
-  <si>
-    <t>docker build . -t tungbui/my-simple-webapp</t>
-  </si>
-  <si>
-    <t>docker login</t>
-  </si>
-  <si>
-    <t>docker push tungbui/my-simple-webapp</t>
-  </si>
-  <si>
-    <t>Copy source code from local app.py</t>
-  </si>
-  <si>
-    <t>FROM ubuntu</t>
-  </si>
-  <si>
-    <t>RUN apt-get update</t>
-  </si>
-  <si>
-    <t>RUN apt-get install -y python python3-pip</t>
-  </si>
-  <si>
-    <t>RUN pip3 install flask</t>
-  </si>
-  <si>
-    <t>COPY . /opt/app.py</t>
-  </si>
-  <si>
-    <t>ENTRYPOINT FLASK_APP=/opt/app.py flask run --host=0.0.0.0</t>
-  </si>
-  <si>
-    <t>https://udlabs.kodekloud.com/topic/labs-docker-images/</t>
+      <t xml:space="preserve"> mysql</t>
+    </r>
+  </si>
+  <si>
+    <t>"NetworkMode": "host"</t>
   </si>
   <si>
     <r>
@@ -836,12 +1959,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> container_ID/name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">docker </t>
+      <t xml:space="preserve"> tungbui/simple-webapp</t>
+    </r>
+  </si>
+  <si>
+    <t>docker network create --driver bridge --subnet 182.18.0.1/24 --gateway 182.18.0.1 wp-mysql-network</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d --name=mysql-db -e MYSQL_ROOT_PASSWORD=db_pass123 </t>
     </r>
     <r>
       <rPr>
@@ -851,7 +1977,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>logs</t>
+      <t>--network=wp-mysql-network</t>
     </r>
     <r>
       <rPr>
@@ -861,47 +1987,101 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> container_ID/name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">docker </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>history</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> mysql:5.6</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -d --name=webapp -p 38080:8080 -e DB_Host=mysql-db -e DB_Password=db_pass123 --network=wp-mysql-network  kodekloud/simple-webapp-mysql</t>
+  </si>
+  <si>
+    <t>Docker on Windows</t>
+  </si>
+  <si>
+    <t>1. Docker on Windows using Docker Toolbox</t>
+  </si>
+  <si>
+    <t>2. Docker Desktop for Windows</t>
+  </si>
+  <si>
+    <t>Docker toolbox</t>
+  </si>
+  <si>
+    <t>VM + Ubuntu + Docker</t>
+  </si>
+  <si>
+    <t>Docker Desktop for Windows</t>
+  </si>
+  <si>
+    <t>Microsoft Hyper-V</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise/Professional, Windows Server 2016</t>
+  </si>
+  <si>
+    <t>Docker on Windows Documentation: https://docs.docker.com/docker-for-windows/</t>
+  </si>
+  <si>
+    <t>References and Links:</t>
+  </si>
+  <si>
+    <t>Docker For Windows Download: https://www.docker.com/docker-windows</t>
+  </si>
+  <si>
+    <t>Docker Toolbox Download: https://www.docker.com/products/docker-toolbox</t>
+  </si>
+  <si>
+    <t>Toolbox: Oracle Virtualbox, Docker Engine, Docker Machine, Docker Compose, Kitematic GUI</t>
+  </si>
+  <si>
+    <t>Docker For Windows supports Linux Containers (Default) and Windows Containers</t>
+  </si>
+  <si>
+    <t>Docker For Windows Container Types:</t>
+  </si>
+  <si>
+    <t>Windows Server Core: Windows container on native windows server core</t>
+  </si>
+  <si>
+    <t>Hyper-V Isolation: Windows container on an isolated hyper-v kernel</t>
+  </si>
+  <si>
+    <t>Docker on MAC</t>
+  </si>
+  <si>
+    <t>1. Docker on MAC using Docker Toolbox</t>
+  </si>
+  <si>
+    <t>2. Docker Desktop for MAC</t>
+  </si>
+  <si>
+    <t>HyperKit</t>
+  </si>
+  <si>
+    <t>MacOS Sierra 10.12 or newer</t>
+  </si>
+  <si>
+    <t>Mac Hardware 2010 model or newer</t>
+  </si>
+  <si>
+    <t>Orchestration: the planning or coordination of the elements of a situation to produce a desired effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep close watch on the load and performance of application </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> container_ID/name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">docker run </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-d</t>
+      <t>health</t>
     </r>
     <r>
       <rPr>
@@ -911,110 +2091,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> timer</t>
-    </r>
-  </si>
-  <si>
-    <t>https://udlabs.kodekloud.com/topic/labs-envirnoment-variables/</t>
-  </si>
-  <si>
-    <t>CMD vs ENTRYPOINT</t>
-  </si>
-  <si>
-    <t>CMD sleep 5</t>
-  </si>
-  <si>
-    <t>CMD ["sleep", "5"]</t>
-  </si>
-  <si>
-    <t>docker run ubuntu-sleeper sleep 10</t>
-  </si>
-  <si>
-    <t>docker run ubuntu-sleeper 10</t>
-  </si>
-  <si>
-    <t>ENTRYPOINT ["sleep"]</t>
-  </si>
-  <si>
-    <t>Entrypoint instruction specifies the program that will be run when the container starts.</t>
-  </si>
-  <si>
-    <t>CMD ["5"]</t>
-  </si>
-  <si>
-    <t>For safety reason</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">docker run </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">--entrypoint </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> of containers and docker host</t>
+    </r>
+  </si>
+  <si>
+    <t>Container Orchestration: a solution that consists of a set of tools and scripts that can help host-containers in production environment</t>
+  </si>
+  <si>
+    <t>Multiple docker hosts that can host containers</t>
+  </si>
+  <si>
+    <t>docker service create --replicas=100 nodejs</t>
+  </si>
+  <si>
+    <r>
+      <t>Automatically</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sleep2.0 ubuntu-sleeper 10</t>
-    </r>
-  </si>
-  <si>
-    <t>Over-write entrypoint</t>
-  </si>
-  <si>
-    <t>https://udlabs.kodekloud.com/topic/labs-command-entrypoint/</t>
-  </si>
-  <si>
-    <t>ENTRYPOINT ["python", "app.py"]</t>
-  </si>
-  <si>
-    <t>EXPOSE 8080</t>
-  </si>
-  <si>
-    <t>WORKDIR /opt</t>
-  </si>
-  <si>
-    <t>https://hub.docker.com/_/python?tab=tags&amp;page=1&amp;ordering=last_updated</t>
-  </si>
-  <si>
-    <t>docker pull python:3.6.14-alpine3.14</t>
-  </si>
-  <si>
-    <t>docker build . -t webapp-color:lite</t>
-  </si>
-  <si>
-    <t>FROM python:3.6 ---&gt; python:3.6.14-alpine3.14</t>
-  </si>
-  <si>
-    <t>Find a lite docker image (40MB)</t>
-  </si>
-  <si>
-    <t>docker run -p 8383:8080 webapp-color:lite</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">docker run --name mysql-db </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-e MYSQL_ROOT_PASSWORD=db_pass123</t>
+      <t xml:space="preserve"> scale up</t>
     </r>
     <r>
       <rPr>
@@ -1024,15 +2126,226 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> mysql</t>
-    </r>
+      <t xml:space="preserve"> the number of instances when users increase and</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scale down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when demand decreases.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Automatically </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adding additional hosts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to support the user load </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide suport for </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">advanced networking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>between these containers across different hosts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Load balancing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user requests across different hosts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sharing storage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between the hosts</t>
+    </r>
+  </si>
+  <si>
+    <t>Docker SWARM</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>MESOS</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Must deploy </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional instances</t>
+    </r>
+  </si>
+  <si>
+    <t>Combine multiple Docker machines into a single Docker cluster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kubernetes CLI = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kubectrl</t>
+    </r>
+  </si>
+  <si>
+    <t>kubectl run --replicas=1000 my-web-server</t>
+  </si>
+  <si>
+    <t>kubectl scale --replicas=2000 my-web-server</t>
+  </si>
+  <si>
+    <t>kuberctl rolling-update my-web-server --image=web-server:2</t>
+  </si>
+  <si>
+    <t>kuberctl rolling-update my-web-server --rollback</t>
+  </si>
+  <si>
+    <t>kubectl run hello-minikube</t>
+  </si>
+  <si>
+    <t>kubectl cluster-info</t>
+  </si>
+  <si>
+    <t>kubectl get nodes</t>
+  </si>
+  <si>
+    <t>list all the nodes part of the cluster</t>
+  </si>
+  <si>
+    <t>deploy an application on the cluster</t>
+  </si>
+  <si>
+    <t>view info about cluster</t>
+  </si>
+  <si>
+    <t>kubectl run my-web-app --image=my-web-app --replicas=100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,6 +2396,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1105,15 +2434,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1423,13 +2754,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>56762</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>123381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1467,13 +2798,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9143</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>56809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1511,13 +2842,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>188611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1543,6 +2874,402 @@
         <a:xfrm>
           <a:off x="6705600" y="26670001"/>
           <a:ext cx="4772025" cy="2474610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552152</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>28405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10A5CAA-2415-474D-AFB0-B0C1B06EE0EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="37909500"/>
+          <a:ext cx="2380952" cy="1361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361676</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>95143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C9A1E1-F56F-4790-BF74-33F7B17D11E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="37909500"/>
+          <a:ext cx="2190476" cy="857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542324</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>47286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CF16D3-CAFD-45B2-99F1-65CF1C72C782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="39814500"/>
+          <a:ext cx="4809524" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>246933</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>114000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2019CD4B-A31B-4084-87BA-1FB5BE706C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="51625500"/>
+          <a:ext cx="5733333" cy="2400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>23942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0FF399-8300-48E2-A8AB-0CD9FF3DB31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924801" y="54292500"/>
+          <a:ext cx="4724400" cy="2690942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37409</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>171095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D421C5-4F83-417B-8402-0A71D7050E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411200" y="54483000"/>
+          <a:ext cx="5523809" cy="2838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>484876</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>28405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0863D1EA-F344-49A9-84BD-DF9994696C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="64579500"/>
+          <a:ext cx="7190476" cy="1361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>351619</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>104548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BFB034-14C2-49DE-9456-A5E1F49E0F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="80391000"/>
+          <a:ext cx="6447619" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342019</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>18762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE9D8C2-14CA-4BD6-B105-FDF1F1E7247E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="82677000"/>
+          <a:ext cx="7047619" cy="2304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,15 +3544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:V195"/>
+  <dimension ref="A2:AA448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="M435" sqref="M435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
         <v>14</v>
       </c>
@@ -1841,42 +3568,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -2057,634 +3789,1797 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>48</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>53</v>
-      </c>
-      <c r="F74" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>61</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>58</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>63</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>64</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>65</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>307</v>
+      </c>
+      <c r="F86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>308</v>
+      </c>
+      <c r="F94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="L98" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>76</v>
-      </c>
-      <c r="F88" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>71</v>
-      </c>
-      <c r="H89" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>72</v>
-      </c>
-      <c r="H90" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>82</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>79</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>94</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>87</v>
-      </c>
-      <c r="G102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>88</v>
-      </c>
-      <c r="G103" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
+        <v>85</v>
+      </c>
+      <c r="G104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>91</v>
+      </c>
+      <c r="O106" t="s">
+        <v>110</v>
+      </c>
+      <c r="V106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="O104" t="s">
-        <v>112</v>
-      </c>
-      <c r="V104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>103</v>
-      </c>
-      <c r="H115" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H116" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="H117" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>121</v>
+      </c>
+      <c r="H119" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>109</v>
-      </c>
-      <c r="H121" t="s">
-        <v>110</v>
+      <c r="H120" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="1" t="s">
-        <v>111</v>
+      <c r="B122" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
+        <v>107</v>
+      </c>
+      <c r="H123" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>164</v>
+      </c>
+      <c r="H128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>165</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>166</v>
+      </c>
+      <c r="L132" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
         <v>167</v>
       </c>
-      <c r="H126" t="s">
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>168</v>
-      </c>
-      <c r="L129" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>169</v>
-      </c>
-      <c r="L130" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L131" s="3"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
+      <c r="L137" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>135</v>
+      </c>
+      <c r="J140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
         <v>138</v>
       </c>
-      <c r="J138" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>114</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C148" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>116</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
-        <v>146</v>
-      </c>
-      <c r="O156" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C157" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="O157" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C158" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="O158" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C159" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C160" s="6" t="s">
+      <c r="O162" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C163" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O160" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
-        <v>149</v>
-      </c>
-      <c r="J161" t="s">
-        <v>159</v>
-      </c>
-      <c r="O161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C162" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="O162" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C163" s="7"/>
+      <c r="O163" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C164" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="O164" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C165" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C166" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O166" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>146</v>
+      </c>
+      <c r="J167" t="s">
         <v>156</v>
       </c>
-      <c r="L166" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L167" s="3" t="s">
-        <v>183</v>
+      <c r="O167" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C168" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="O168" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C169" s="7" t="s">
-        <v>158</v>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C170" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>172</v>
+      <c r="C171" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
-        <v>160</v>
-      </c>
-      <c r="G172" t="s">
-        <v>175</v>
+      <c r="C172" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
-        <v>173</v>
+      <c r="C173" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
-        <v>174</v>
+      <c r="L174" s="3"/>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C175" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
-        <v>160</v>
-      </c>
-      <c r="G176" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
-        <v>177</v>
+      <c r="C176" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>178</v>
+        <v>157</v>
+      </c>
+      <c r="G179" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>177</v>
-      </c>
-      <c r="G181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>157</v>
+      </c>
+      <c r="G183" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
-        <v>181</v>
-      </c>
-      <c r="I184" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
+        <v>174</v>
+      </c>
+      <c r="G188" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>178</v>
+      </c>
+      <c r="I191" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C191" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
-        <v>192</v>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="212" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="213" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C213" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="214" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C214" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="W214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="W215" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA215" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X216" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="217" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>200</v>
+      </c>
+      <c r="W217" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA217" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>201</v>
+      </c>
+      <c r="X218" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>202</v>
+      </c>
+      <c r="W219" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA219" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="220" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X220" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="221" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>203</v>
+      </c>
+      <c r="E221" t="s">
+        <v>204</v>
+      </c>
+      <c r="X221" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="222" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>205</v>
+      </c>
+      <c r="E222" t="s">
+        <v>206</v>
+      </c>
+      <c r="X222" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="223" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>208</v>
+      </c>
+      <c r="E223" t="s">
+        <v>207</v>
+      </c>
+      <c r="X223" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>209</v>
+      </c>
+      <c r="E224" t="s">
+        <v>210</v>
+      </c>
+      <c r="X224" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>211</v>
+      </c>
+      <c r="E225" t="s">
+        <v>212</v>
+      </c>
+      <c r="W225" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA225" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X226" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="227" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>213</v>
+      </c>
+      <c r="X228" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>214</v>
+      </c>
+      <c r="X229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>215</v>
+      </c>
+      <c r="X230" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>216</v>
+      </c>
+      <c r="W231" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA231" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>217</v>
+      </c>
+      <c r="X232" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>218</v>
+      </c>
+      <c r="X233" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="234" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>219</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="X234" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="L235" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="X235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>238</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>226</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F237" t="s">
+        <v>240</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="239" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="240" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>247</v>
+      </c>
+      <c r="E240" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>249</v>
+      </c>
+      <c r="E242" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>251</v>
+      </c>
+      <c r="E246" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N247" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>253</v>
+      </c>
+      <c r="O248" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C249" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D249" s="7"/>
+      <c r="O249" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C250" s="7"/>
+      <c r="D250" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="O250" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O251" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O252" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="253" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>114</v>
+      </c>
+      <c r="O253" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="254" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>262</v>
+      </c>
+      <c r="O254" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="255" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>263</v>
+      </c>
+      <c r="O255" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>273</v>
+      </c>
+      <c r="E260" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>275</v>
+      </c>
+      <c r="F261" t="s">
+        <v>276</v>
+      </c>
+      <c r="H261" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>279</v>
+      </c>
+      <c r="E264" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>289</v>
+      </c>
+      <c r="J271" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>379</v>
+      </c>
+      <c r="J272" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>285</v>
+      </c>
+      <c r="J273" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>286</v>
+      </c>
+      <c r="J275" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>299</v>
+      </c>
+      <c r="G297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>302</v>
+      </c>
+      <c r="G298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B308" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="311" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B317" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="318" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>318</v>
+      </c>
+      <c r="G318" t="s">
+        <v>323</v>
+      </c>
+      <c r="I318" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="319" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>322</v>
+      </c>
+      <c r="G319" t="s">
+        <v>324</v>
+      </c>
+      <c r="I319" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="320" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>319</v>
+      </c>
+      <c r="G320" t="s">
+        <v>325</v>
+      </c>
+      <c r="I320" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="321" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>320</v>
+      </c>
+      <c r="G321" t="s">
+        <v>326</v>
+      </c>
+      <c r="I321" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="322" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>321</v>
+      </c>
+      <c r="G322" t="s">
+        <v>327</v>
+      </c>
+      <c r="I322" t="s">
+        <v>330</v>
+      </c>
+      <c r="N322" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="324" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B324" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="325" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>340</v>
+      </c>
+      <c r="N325" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="327" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>334</v>
+      </c>
+      <c r="I327" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="328" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>333</v>
+      </c>
+      <c r="I328" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="329" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="331" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B331" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="332" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
+        <v>344</v>
+      </c>
+      <c r="F332" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="333" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="334" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="335" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="337" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>114</v>
+      </c>
+      <c r="L337" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="338" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C338" t="s">
+        <v>342</v>
+      </c>
+      <c r="L338" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="339" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="340" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="341" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="343" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B343" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="346" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>358</v>
+      </c>
+      <c r="D346" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="347" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="348" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="349" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>359</v>
+      </c>
+      <c r="D349" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="350" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>360</v>
+      </c>
+      <c r="D350" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="352" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C354" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C355" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C358" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C360" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
+        <v>383</v>
+      </c>
+      <c r="H363" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C366" t="s">
+        <v>374</v>
+      </c>
+      <c r="G366" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>375</v>
+      </c>
+      <c r="G367" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C379" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C380" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C383" t="s">
+        <v>393</v>
+      </c>
+      <c r="F383" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C400" t="s">
+        <v>407</v>
+      </c>
+      <c r="E400" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B408" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B412" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C414" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C415" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C416" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C417" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C418" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C419" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B421" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>422</v>
+      </c>
+      <c r="D424" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>423</v>
+      </c>
+      <c r="D425" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C435" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C437" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C438" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C439" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C440" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C442" t="s">
+        <v>433</v>
+      </c>
+      <c r="H442" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C443" t="s">
+        <v>434</v>
+      </c>
+      <c r="H443" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C444" t="s">
+        <v>435</v>
+      </c>
+      <c r="H444" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C445" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2692,37 +5587,49 @@
     <hyperlink ref="C59" r:id="rId1" xr:uid="{2757D658-94C0-4AF5-98FB-257245AFAD56}"/>
     <hyperlink ref="C60" r:id="rId2" xr:uid="{CABB59D7-5F16-4D21-B40B-43722E00871A}"/>
     <hyperlink ref="D34" r:id="rId3" xr:uid="{7D854027-AB6D-46B7-8972-3B56818443A4}"/>
-    <hyperlink ref="L95" r:id="rId4" xr:uid="{82264F67-978E-45E1-9563-28D026493513}"/>
-    <hyperlink ref="L96" r:id="rId5" xr:uid="{6BC722B0-886F-4CE8-AEF7-0992A52F3627}"/>
-    <hyperlink ref="L97" r:id="rId6" xr:uid="{DFB066B8-9282-41FA-88D6-24941BB30BD5}"/>
-    <hyperlink ref="L98" r:id="rId7" xr:uid="{BE8C77F1-EDDD-458E-9A30-EF43A7DAD86E}"/>
-    <hyperlink ref="L129" r:id="rId8" xr:uid="{3495A8D7-5853-4D41-B8E8-E2697E0DC748}"/>
-    <hyperlink ref="L130" r:id="rId9" xr:uid="{2AF8DB29-EF5D-44CA-84DC-2614BD0BF6ED}"/>
-    <hyperlink ref="J155" r:id="rId10" xr:uid="{62591FB3-0837-4760-B060-589336BA0B59}"/>
-    <hyperlink ref="L165" r:id="rId11" xr:uid="{C842D8D3-B27F-4CA5-B0B5-2B0AE92361C9}"/>
-    <hyperlink ref="L166" r:id="rId12" xr:uid="{7C41924F-E0EC-4CA5-A632-DFB6994F18FB}"/>
-    <hyperlink ref="L167" r:id="rId13" xr:uid="{5868772D-357F-4B7A-BB07-63C376129A3B}"/>
-    <hyperlink ref="C191" r:id="rId14" xr:uid="{328E4CB1-D1E7-47C9-A284-E89CB6286881}"/>
+    <hyperlink ref="L97" r:id="rId4" xr:uid="{82264F67-978E-45E1-9563-28D026493513}"/>
+    <hyperlink ref="L98" r:id="rId5" xr:uid="{6BC722B0-886F-4CE8-AEF7-0992A52F3627}"/>
+    <hyperlink ref="L99" r:id="rId6" xr:uid="{DFB066B8-9282-41FA-88D6-24941BB30BD5}"/>
+    <hyperlink ref="L100" r:id="rId7" xr:uid="{BE8C77F1-EDDD-458E-9A30-EF43A7DAD86E}"/>
+    <hyperlink ref="L131" r:id="rId8" xr:uid="{3495A8D7-5853-4D41-B8E8-E2697E0DC748}"/>
+    <hyperlink ref="L132" r:id="rId9" xr:uid="{2AF8DB29-EF5D-44CA-84DC-2614BD0BF6ED}"/>
+    <hyperlink ref="J161" r:id="rId10" xr:uid="{62591FB3-0837-4760-B060-589336BA0B59}"/>
+    <hyperlink ref="L171" r:id="rId11" xr:uid="{C842D8D3-B27F-4CA5-B0B5-2B0AE92361C9}"/>
+    <hyperlink ref="L172" r:id="rId12" xr:uid="{7C41924F-E0EC-4CA5-A632-DFB6994F18FB}"/>
+    <hyperlink ref="L173" r:id="rId13" xr:uid="{5868772D-357F-4B7A-BB07-63C376129A3B}"/>
+    <hyperlink ref="C200" r:id="rId14" xr:uid="{328E4CB1-D1E7-47C9-A284-E89CB6286881}"/>
+    <hyperlink ref="C157" r:id="rId15" location=":~:text=A%20Dockerfile%20is%20a%20text,can%20use%20in%20a%20Dockerfile%20." xr:uid="{543C0C7D-1B41-462E-8CFC-052B4F3B7EAD}"/>
+    <hyperlink ref="L234" r:id="rId16" xr:uid="{70D9252A-9879-436A-8E94-E2132F767B10}"/>
+    <hyperlink ref="L235" r:id="rId17" xr:uid="{C08B247E-71D0-4162-8EA5-F4E1A33982C6}"/>
+    <hyperlink ref="L236" r:id="rId18" xr:uid="{0A78428B-8EEF-4800-A66A-3652B2D29617}"/>
+    <hyperlink ref="L237" r:id="rId19" xr:uid="{B3CF8262-7286-4CDC-8CAE-757EFE8D88F9}"/>
+    <hyperlink ref="L337" r:id="rId20" xr:uid="{C78DFA7A-680B-45D2-ABA5-A4506D5B408A}"/>
+    <hyperlink ref="L338" r:id="rId21" xr:uid="{4677B703-752B-4FA0-A0DF-533619D31075}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9085ADD7-11F3-4A83-A1D8-A0432A008E05}">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2732,52 +5639,82 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>131</v>
+      <c r="C14" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
